--- a/CheckListRegistration.xlsx
+++ b/CheckListRegistration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f64cab5807d77f7/Рабочий стол/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\web_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F1576C0-AB21-453A-A582-0C5A5D493119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0277E969-6FA6-40AA-BA3A-EE6060240066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="80">
   <si>
     <t>Название (Аббр.): Модуль регистрации (Рег)</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Проверка</t>
-  </si>
-  <si>
-    <t>Результат</t>
   </si>
   <si>
     <t>Отметить все обязательные поля</t>
@@ -262,6 +259,9 @@
     <t>Lenovo Legion y540-15irh
 ОС Windows 11 Pro Версии 23H2
 Microsoft Edge Версия 120.0.2210.77 (64 бит)</t>
+  </si>
+  <si>
+    <t>Ожидаемый Результат</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +619,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,7 +1045,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1066,60 +1072,60 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1152,6 +1158,16 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1576,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,37 +1605,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -1628,7 +1644,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="33"/>
@@ -1639,171 +1655,171 @@
     </row>
     <row r="6" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="E9" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
         <v>1</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="B10" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
         <v>2</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="B16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>2</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>3</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1816,51 +1832,53 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>74</v>
+      <c r="D23" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1868,16 +1886,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1885,16 +1903,16 @@
         <v>7</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="E25" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1902,16 +1920,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1919,16 +1937,16 @@
         <v>9</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E27" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1936,16 +1954,16 @@
         <v>10</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="E28" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1953,16 +1971,16 @@
         <v>11</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="E29" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -1970,16 +1988,16 @@
         <v>12</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="E30" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1987,16 +2005,16 @@
         <v>13</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2004,16 +2022,16 @@
         <v>14</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2021,16 +2039,16 @@
         <v>15</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2038,16 +2056,16 @@
         <v>16</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2055,16 +2073,16 @@
         <v>17</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2072,16 +2090,16 @@
         <v>18</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2089,16 +2107,16 @@
         <v>19</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2106,42 +2124,42 @@
         <v>20</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>74</v>
+      <c r="D40" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2149,16 +2167,16 @@
         <v>21</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2166,16 +2184,16 @@
         <v>22</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2183,16 +2201,16 @@
         <v>23</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2200,16 +2218,16 @@
         <v>24</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2217,16 +2235,16 @@
         <v>25</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="E45" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2234,16 +2252,16 @@
         <v>26</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="E46" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2251,16 +2269,16 @@
         <v>27</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="E47" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2268,16 +2286,16 @@
         <v>28</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2285,16 +2303,16 @@
         <v>29</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2302,16 +2320,16 @@
         <v>30</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2319,16 +2337,16 @@
         <v>31</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2336,16 +2354,16 @@
         <v>32</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2353,16 +2371,16 @@
         <v>33</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2370,16 +2388,16 @@
         <v>34</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2387,42 +2405,42 @@
         <v>35</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
+      <c r="A56" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>74</v>
+      <c r="D57" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2430,16 +2448,16 @@
         <v>36</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2447,16 +2465,16 @@
         <v>37</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2464,16 +2482,16 @@
         <v>38</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="E60" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2481,16 +2499,16 @@
         <v>39</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2498,16 +2516,16 @@
         <v>40</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="E62" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2515,16 +2533,16 @@
         <v>41</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="E63" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2532,42 +2550,42 @@
         <v>42</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="E64" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>74</v>
+      <c r="D66" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
@@ -2575,16 +2593,16 @@
         <v>43</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2592,16 +2610,16 @@
         <v>44</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
@@ -2609,16 +2627,16 @@
         <v>45</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="E69" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -2626,16 +2644,16 @@
         <v>46</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
@@ -2643,16 +2661,16 @@
         <v>47</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
@@ -2660,16 +2678,16 @@
         <v>48</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
@@ -2677,16 +2695,16 @@
         <v>49</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
@@ -2694,16 +2712,16 @@
         <v>50</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2713,6 +2731,17 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A56:E56"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A65:E65"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
@@ -2729,17 +2758,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CheckListRegistration.xlsx
+++ b/CheckListRegistration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\web_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0277E969-6FA6-40AA-BA3A-EE6060240066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F4CF1D-66B7-40F7-A831-9BFAA18D1BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,15 +1045,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1072,6 +1065,40 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1081,6 +1108,15 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1117,15 +1153,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1133,40 +1160,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1592,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,1127 +1598,1143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14">
         <v>45284</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="36" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="22">
         <v>1</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="5" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="A12" s="22">
         <v>2</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="5" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="22">
         <v>3</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="5" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="A16" s="22">
         <v>4</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="6" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="4">
         <v>6</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="4">
         <v>7</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="4">
         <v>8</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="4">
         <v>9</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="4">
         <v>10</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="4">
         <v>11</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="4">
         <v>12</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="4">
         <v>13</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="4">
         <v>14</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="4">
         <v>15</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34" s="4">
         <v>16</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35" s="4">
         <v>17</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="4">
         <v>18</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="4">
         <v>19</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="4">
         <v>20</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="4">
         <v>21</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="A42" s="4">
         <v>22</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="A43" s="4">
         <v>23</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="A44" s="4">
         <v>24</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="A45" s="4">
         <v>25</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+      <c r="A46" s="4">
         <v>26</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+      <c r="A47" s="4">
         <v>27</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="A48" s="4">
         <v>28</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+      <c r="A49" s="4">
         <v>29</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+      <c r="A50" s="4">
         <v>30</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+      <c r="A51" s="4">
         <v>31</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+      <c r="A52" s="4">
         <v>32</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="7" t="s">
+      <c r="B52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
+      <c r="A53" s="4">
         <v>33</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="B53" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+      <c r="A54" s="4">
         <v>34</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="7" t="s">
+      <c r="B54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
+      <c r="A55" s="4">
         <v>35</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
+      <c r="A58" s="4">
         <v>36</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
+      <c r="A59" s="4">
         <v>37</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="7" t="s">
+      <c r="B59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+      <c r="A60" s="4">
         <v>38</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="7" t="s">
+      <c r="B60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
+      <c r="A61" s="4">
         <v>39</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="7" t="s">
+      <c r="B61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
+      <c r="A62" s="4">
         <v>40</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="7" t="s">
+      <c r="B62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
+      <c r="A63" s="4">
         <v>41</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="7" t="s">
+      <c r="B63" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
+      <c r="A64" s="4">
         <v>42</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="7" t="s">
+      <c r="B64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="21"/>
     </row>
     <row r="66" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
+      <c r="A67" s="4">
         <v>43</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="7" t="s">
+      <c r="B67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
+      <c r="A68" s="4">
         <v>44</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" s="7" t="s">
+      <c r="B68" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
+      <c r="A69" s="4">
         <v>45</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
+      <c r="A70" s="4">
         <v>46</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="7" t="s">
+      <c r="B70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
+      <c r="A71" s="4">
         <v>47</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
+      <c r="A72" s="4">
         <v>48</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
+      <c r="A73" s="4">
         <v>49</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
+      <c r="A74" s="4">
         <v>50</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="6" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
@@ -2742,22 +2751,6 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CheckListRegistration.xlsx
+++ b/CheckListRegistration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\web_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F4CF1D-66B7-40F7-A831-9BFAA18D1BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2FF5D9D-18AE-460E-B6E5-0B43FF81A5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1075,6 +1075,60 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1099,68 +1153,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1598,82 +1598,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14">
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32">
         <v>45284</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -1693,97 +1693,97 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="23">
         <v>2</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>3</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+      <c r="A16" s="23">
         <v>4</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="20" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1794,25 +1794,25 @@
       <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -1849,13 +1849,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -2130,13 +2130,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -2411,13 +2411,13 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
@@ -2556,13 +2556,13 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="21"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
@@ -2719,6 +2719,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A65:E65"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
@@ -2735,22 +2751,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
